--- a/botCode/workWithExcelFile/excelDatabase/10class/М-10-1, А-10-2.xlsx
+++ b/botCode/workWithExcelFile/excelDatabase/10class/М-10-1, А-10-2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12915"/>
   </bookViews>
   <sheets>
     <sheet name="М-10-1, А-10-2" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="56">
   <si>
     <t>Понедельник</t>
   </si>
   <si>
     <t>Иванов Алексей Дмитриевич</t>
+  </si>
+  <si>
+    <t>Демин 10.1</t>
+  </si>
+  <si>
+    <t>пн - 1 урок</t>
+  </si>
+  <si>
+    <t>ср - 5 урок</t>
   </si>
   <si>
     <t>Предмет</t>
@@ -41,19 +50,19 @@
     <t>Учитель</t>
   </si>
   <si>
-    <t>Кабинет</t>
-  </si>
-  <si>
     <t>Киселёв Никита Евгеньевич</t>
   </si>
   <si>
-    <t>русский</t>
+    <t>Напольских 10.5</t>
   </si>
   <si>
-    <t>А-10-2</t>
+    <t>Урок для практических занятий (классрум на время)</t>
   </si>
   <si>
-    <t>Перхулова</t>
+    <t>Classroom+Zoom</t>
+  </si>
+  <si>
+    <t>Английский язык</t>
   </si>
   <si>
     <t>Коломытцева Екатерина Андреевна</t>
@@ -62,10 +71,13 @@
     <t>Английский</t>
   </si>
   <si>
-    <t>см.таблицу после субботы</t>
+    <t>А-10-2</t>
   </si>
   <si>
     <t>Медведь Анастасия Сергеевна</t>
+  </si>
+  <si>
+    <t>Штойк 10.4</t>
   </si>
   <si>
     <t>Геометрия</t>
@@ -77,10 +89,10 @@
     <t>Рязанский</t>
   </si>
   <si>
-    <t>Тихонов Тимофей Ильич</t>
+    <t>Zoom</t>
   </si>
   <si>
-    <t>Шибаева Анастасия Александровна</t>
+    <t>Тихонов Тимофей Ильич</t>
   </si>
   <si>
     <t>алгебра</t>
@@ -89,22 +101,19 @@
     <t>Козодой</t>
   </si>
   <si>
+    <t>Шибаева Анастасия Александровна</t>
+  </si>
+  <si>
+    <t>Будникова 10.3</t>
+  </si>
+  <si>
     <t>Щербина Таисия Артуровна</t>
   </si>
   <si>
-    <t>ОБЖ</t>
-  </si>
-  <si>
-    <t>Кручинина</t>
+    <t>Спецмат</t>
   </si>
   <si>
     <t>Среда</t>
-  </si>
-  <si>
-    <t>Козодой/Щербина</t>
-  </si>
-  <si>
-    <t>403/201</t>
   </si>
   <si>
     <t>Информатика</t>
@@ -113,10 +122,22 @@
     <t>Афонин/Якименко</t>
   </si>
   <si>
-    <t>502/402</t>
+    <t>русский</t>
   </si>
   <si>
-    <t>ОКНО</t>
+    <t>Перхулова</t>
+  </si>
+  <si>
+    <t>Четверг</t>
+  </si>
+  <si>
+    <t>Физика</t>
+  </si>
+  <si>
+    <t>Лит-ра</t>
+  </si>
+  <si>
+    <t>Зенкина</t>
   </si>
   <si>
     <t>физика</t>
@@ -125,22 +146,13 @@
     <t>Щербина</t>
   </si>
   <si>
-    <t>Четверг</t>
-  </si>
-  <si>
-    <t>502/401</t>
-  </si>
-  <si>
-    <t>Лит-ра</t>
-  </si>
-  <si>
-    <t>Зенкина</t>
+    <t>Пятница</t>
   </si>
   <si>
     <t>География</t>
   </si>
   <si>
-    <t>Пятница</t>
+    <t>Корнилова</t>
   </si>
   <si>
     <t>История</t>
@@ -149,22 +161,10 @@
     <t>Мусихин</t>
   </si>
   <si>
-    <t>Биология</t>
-  </si>
-  <si>
-    <t>Смолянова</t>
-  </si>
-  <si>
-    <t>физ-ра</t>
-  </si>
-  <si>
-    <t>спорт.зал</t>
-  </si>
-  <si>
     <t>Суббота</t>
   </si>
   <si>
-    <t>география</t>
+    <t>ОБЖ</t>
   </si>
   <si>
     <t>химия</t>
@@ -184,17 +184,21 @@
   <si>
     <t>Хамидова</t>
   </si>
+  <si>
+    <t>Биология</t>
+  </si>
+  <si>
+    <t>А-10-1</t>
+  </si>
+  <si>
+    <t>Смолянова</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,22 +208,43 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,12 +253,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -262,6 +305,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -300,53 +358,74 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -364,43 +443,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="8029575" cy="2752725"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png" title="Изображение"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="12553950"/>
-          <a:ext cx="8029575" cy="2752725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -666,11 +708,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист2"/>
+  <sheetPr codeName="Лист3"/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -679,10 +721,13 @@
     <col min="2" max="2" width="17.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="14.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="43.25" style="2" customWidth="1"/>
-    <col min="8" max="26" width="7.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="43.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.125" style="2" customWidth="1"/>
+    <col min="11" max="26" width="7.625" style="2" customWidth="1"/>
     <col min="27" max="16384" width="12.625" style="2"/>
   </cols>
   <sheetData>
@@ -726,9 +771,15 @@
       <c r="G2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -749,22 +800,22 @@
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>5</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E3" s="6"/>
       <c r="F3" s="1"/>
       <c r="G3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -784,27 +835,27 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="B4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="6">
-        <v>204</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -829,20 +880,20 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="1"/>
       <c r="G5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -862,27 +913,29 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="6">
-        <v>406</v>
+        <v>20</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -902,27 +955,29 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="6">
-        <v>406</v>
+      <c r="B7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -942,27 +997,29 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="D8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="6">
-        <v>403</v>
+        <v>24</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -982,23 +1039,21 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>6</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="6">
-        <v>403</v>
-      </c>
-      <c r="F9" s="1"/>
+      <c r="B9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1024,19 +1079,17 @@
       <c r="A10" s="6">
         <v>7</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="10">
-        <v>404</v>
-      </c>
-      <c r="F10" s="1"/>
+      <c r="B10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1148,7 +1201,7 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1179,17 +1232,15 @@
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>5</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E15" s="6"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1212,21 +1263,21 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>1</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>26</v>
+      <c r="D16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1250,21 +1301,21 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>2</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>26</v>
+      <c r="D17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1288,21 +1339,21 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>3</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -1326,21 +1377,21 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>4</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1364,17 +1415,21 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>5</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1396,21 +1451,21 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>6</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="13">
-        <v>305</v>
+        <v>33</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1439,15 +1494,15 @@
         <v>7</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1474,18 +1529,10 @@
       <c r="A23" s="6">
         <v>8</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="6">
-        <v>308</v>
-      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1512,18 +1559,10 @@
       <c r="A24" s="6">
         <v>9</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="6">
-        <v>308</v>
-      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1576,7 +1615,7 @@
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1607,17 +1646,15 @@
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>5</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E27" s="6"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1640,23 +1677,21 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>1</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="6">
-        <v>308</v>
-      </c>
-      <c r="F28" s="1"/>
+      <c r="B28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -1678,23 +1713,21 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>2</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="6">
-        <v>308</v>
-      </c>
-      <c r="F29" s="1"/>
+      <c r="B29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -1716,21 +1749,21 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>3</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -1754,21 +1787,21 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>4</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>34</v>
+      <c r="B31" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1792,21 +1825,21 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>5</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E32" s="6">
-        <v>204</v>
+      <c r="B32" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -1834,18 +1867,10 @@
       <c r="A33" s="6">
         <v>6</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" s="6">
-        <v>204</v>
-      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -1872,18 +1897,10 @@
       <c r="A34" s="6">
         <v>7</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" s="6">
-        <v>201</v>
-      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -1910,18 +1927,10 @@
       <c r="A35" s="6">
         <v>8</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="6">
-        <v>201</v>
-      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -1948,16 +1957,10 @@
       <c r="A36" s="6">
         <v>9</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6">
-        <v>305</v>
-      </c>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -2010,7 +2013,7 @@
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -2041,17 +2044,15 @@
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>5</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E39" s="6"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -2074,21 +2075,21 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>1</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E40" s="6">
-        <v>203</v>
+      <c r="B40" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -2112,21 +2113,21 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>2</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E41" s="6">
-        <v>203</v>
+        <v>44</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -2150,21 +2151,21 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>3</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E42" s="6">
-        <v>406</v>
+        <v>20</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -2188,21 +2189,21 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>4</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" s="6">
-        <v>406</v>
+        <v>20</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -2230,17 +2231,17 @@
       <c r="A44" s="6">
         <v>5</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="1"/>
+      <c r="F44" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -2266,18 +2267,10 @@
       <c r="A45" s="6">
         <v>6</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E45" s="6">
-        <v>407</v>
-      </c>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -2304,14 +2297,10 @@
       <c r="A46" s="6">
         <v>7</v>
       </c>
-      <c r="B46" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -2455,17 +2444,15 @@
     <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
       <c r="B51" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>5</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E51" s="6"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -2488,21 +2475,21 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>1</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6">
-        <v>305</v>
-      </c>
-      <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -2524,7 +2511,7 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>2</v>
       </c>
@@ -2532,13 +2519,13 @@
         <v>47</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E53" s="6">
-        <v>208</v>
+      <c r="E53" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -2562,21 +2549,21 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>3</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E54" s="6">
-        <v>308</v>
+        <v>39</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -2600,21 +2587,21 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>4</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E55" s="6">
-        <v>308</v>
+        <v>39</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -2638,7 +2625,7 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>5</v>
       </c>
@@ -2646,13 +2633,13 @@
         <v>49</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E56" s="6">
-        <v>307</v>
+      <c r="E56" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -2676,7 +2663,7 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>6</v>
       </c>
@@ -2684,13 +2671,13 @@
         <v>51</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E57" s="6">
-        <v>405</v>
+      <c r="E57" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -2714,17 +2701,21 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>7</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6" t="s">
-        <v>44</v>
+        <v>53</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -9149,18 +9140,22 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="D44:E44"/>
+  <mergeCells count="13">
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="B44:D44"/>
     <mergeCell ref="A50:E50"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="A14:E14"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="B20:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/botCode/workWithExcelFile/excelDatabase/10class/М-10-1, А-10-2.xlsx
+++ b/botCode/workWithExcelFile/excelDatabase/10class/М-10-1, А-10-2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12915"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="М-10-1, А-10-2" sheetId="1" r:id="rId1"/>
@@ -24,21 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="50">
   <si>
     <t>Понедельник</t>
   </si>
   <si>
     <t>Иванов Алексей Дмитриевич</t>
-  </si>
-  <si>
-    <t>Демин 10.1</t>
-  </si>
-  <si>
-    <t>пн - 1 урок</t>
-  </si>
-  <si>
-    <t>ср - 5 урок</t>
   </si>
   <si>
     <t>Предмет</t>
@@ -51,9 +42,6 @@
   </si>
   <si>
     <t>Киселёв Никита Евгеньевич</t>
-  </si>
-  <si>
-    <t>Напольских 10.5</t>
   </si>
   <si>
     <t>Урок для практических занятий (классрум на время)</t>
@@ -75,9 +63,6 @@
   </si>
   <si>
     <t>Медведь Анастасия Сергеевна</t>
-  </si>
-  <si>
-    <t>Штойк 10.4</t>
   </si>
   <si>
     <t>Геометрия</t>
@@ -102,9 +87,6 @@
   </si>
   <si>
     <t>Шибаева Анастасия Александровна</t>
-  </si>
-  <si>
-    <t>Будникова 10.3</t>
   </si>
   <si>
     <t>Щербина Таисия Артуровна</t>
@@ -244,7 +226,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,18 +247,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -377,11 +353,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -407,11 +420,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -425,8 +441,17 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -712,7 +737,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:F33"/>
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -771,15 +796,9 @@
       <c r="G2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -800,22 +819,20 @@
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="1"/>
       <c r="G3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -840,22 +857,20 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -880,20 +895,18 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="1"/>
       <c r="G5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>17</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -918,24 +931,22 @@
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -960,24 +971,22 @@
         <v>4</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>21</v>
+      <c r="E7" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1002,24 +1011,22 @@
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="E8" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>17</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1043,16 +1050,16 @@
       <c r="A9" s="6">
         <v>6</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
+      <c r="B9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>28</v>
+        <v>7</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1079,16 +1086,16 @@
       <c r="A10" s="6">
         <v>7</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
+      <c r="B10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>28</v>
+        <v>7</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1201,7 +1208,7 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1231,14 +1238,14 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
-      <c r="B15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>7</v>
+      <c r="B15" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>4</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="1"/>
@@ -1268,16 +1275,16 @@
         <v>1</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>24</v>
-      </c>
       <c r="E16" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1306,16 +1313,16 @@
         <v>2</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>24</v>
-      </c>
       <c r="E17" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1343,17 +1350,17 @@
       <c r="A18" s="6">
         <v>3</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>31</v>
+      <c r="B18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -1382,16 +1389,16 @@
         <v>4</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1420,15 +1427,15 @@
         <v>5</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1456,16 +1463,16 @@
         <v>6</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1494,14 +1501,14 @@
         <v>7</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1615,7 +1622,7 @@
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1646,13 +1653,13 @@
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="1"/>
@@ -1682,15 +1689,15 @@
         <v>1</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1718,15 +1725,15 @@
         <v>2</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -1753,17 +1760,17 @@
       <c r="A30" s="6">
         <v>3</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>31</v>
+      <c r="B30" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -1792,16 +1799,16 @@
         <v>4</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1830,16 +1837,16 @@
         <v>5</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -1867,9 +1874,9 @@
       <c r="A33" s="6">
         <v>6</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
       <c r="E33" s="6"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -1957,10 +1964,10 @@
       <c r="A36" s="6">
         <v>9</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -2013,7 +2020,7 @@
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -2043,14 +2050,14 @@
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
-      <c r="B39" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>7</v>
+      <c r="B39" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>4</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="1"/>
@@ -2080,16 +2087,16 @@
         <v>1</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -2118,16 +2125,16 @@
         <v>2</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -2156,16 +2163,16 @@
         <v>3</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -2194,16 +2201,16 @@
         <v>4</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -2232,15 +2239,15 @@
         <v>5</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="16" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -2263,15 +2270,21 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>6</v>
       </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="1"/>
+      <c r="B45" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="20"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>24</v>
+      </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -2297,10 +2310,10 @@
       <c r="A46" s="6">
         <v>7</v>
       </c>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -2413,7 +2426,7 @@
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -2444,13 +2457,13 @@
     <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
       <c r="B51" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="1"/>
@@ -2480,15 +2493,15 @@
         <v>1</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="16" t="s">
-        <v>46</v>
+        <v>7</v>
+      </c>
+      <c r="F52" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -2516,16 +2529,16 @@
         <v>2</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -2554,16 +2567,16 @@
         <v>3</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -2592,16 +2605,16 @@
         <v>4</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -2630,16 +2643,16 @@
         <v>5</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -2668,16 +2681,16 @@
         <v>6</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -2706,16 +2719,16 @@
         <v>7</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -9140,14 +9153,15 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="A50:E50"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="A26:E26"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="A38:E38"/>
     <mergeCell ref="B44:D44"/>
-    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="B45:D45"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B9:D9"/>

--- a/botCode/workWithExcelFile/excelDatabase/10class/М-10-1, А-10-2.xlsx
+++ b/botCode/workWithExcelFile/excelDatabase/10class/М-10-1, А-10-2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12915"/>
   </bookViews>
   <sheets>
     <sheet name="М-10-1, А-10-2" sheetId="1" r:id="rId1"/>
@@ -190,25 +190,21 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -216,14 +212,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -235,24 +229,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFF4B083"/>
+        <bgColor rgb="FFF4B083"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFBE4D5"/>
+        <bgColor rgb="FFFBE4D5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="0"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -281,21 +275,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -340,61 +319,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -407,51 +336,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -736,23 +642,21 @@
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="43.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.125" style="2" customWidth="1"/>
-    <col min="11" max="26" width="7.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="37.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.625" style="2" customWidth="1"/>
+    <col min="11" max="26" width="6.75" style="2" customWidth="1"/>
     <col min="27" max="16384" width="12.625" style="2"/>
   </cols>
   <sheetData>
@@ -859,12 +763,12 @@
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="5" t="s">
@@ -939,7 +843,7 @@
       <c r="D6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="1"/>
@@ -970,16 +874,16 @@
       <c r="A7" s="6">
         <v>4</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="1"/>
@@ -1019,7 +923,7 @@
       <c r="D8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="1"/>
@@ -1050,15 +954,15 @@
       <c r="A9" s="6">
         <v>6</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="8" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="13" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="1"/>
@@ -1086,15 +990,15 @@
       <c r="A10" s="6">
         <v>7</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="8" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="13" t="s">
         <v>22</v>
       </c>
       <c r="G10" s="1"/>
@@ -1238,13 +1142,13 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E15" s="6"/>
@@ -1274,16 +1178,16 @@
       <c r="A16" s="6">
         <v>1</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F16" s="1"/>
@@ -1312,16 +1216,16 @@
       <c r="A17" s="6">
         <v>2</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F17" s="1"/>
@@ -1350,16 +1254,16 @@
       <c r="A18" s="6">
         <v>3</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F18" s="1"/>
@@ -1397,7 +1301,7 @@
       <c r="D19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="1"/>
@@ -1429,12 +1333,12 @@
       <c r="B20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8" t="s">
+      <c r="C20" s="4"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G20" s="1"/>
@@ -1471,7 +1375,7 @@
       <c r="D21" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F21" s="1"/>
@@ -1507,7 +1411,7 @@
         <v>11</v>
       </c>
       <c r="D22" s="6"/>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F22" s="1"/>
@@ -1691,12 +1595,12 @@
       <c r="B28" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="8" t="s">
+      <c r="C28" s="4"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="10" t="s">
         <v>29</v>
       </c>
       <c r="G28" s="1"/>
@@ -1727,12 +1631,12 @@
       <c r="B29" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="8" t="s">
+      <c r="C29" s="4"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="10" t="s">
         <v>29</v>
       </c>
       <c r="G29" s="1"/>
@@ -1760,16 +1664,16 @@
       <c r="A30" s="6">
         <v>3</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F30" s="1"/>
@@ -1798,16 +1702,16 @@
       <c r="A31" s="6">
         <v>4</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F31" s="1"/>
@@ -1836,16 +1740,16 @@
       <c r="A32" s="6">
         <v>5</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F32" s="1"/>
@@ -1874,9 +1778,9 @@
       <c r="A33" s="6">
         <v>6</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -1964,10 +1868,10 @@
       <c r="A36" s="6">
         <v>9</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -2050,13 +1954,13 @@
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E39" s="6"/>
@@ -2086,16 +1990,16 @@
       <c r="A40" s="6">
         <v>1</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E40" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F40" s="1"/>
@@ -2133,7 +2037,7 @@
       <c r="D41" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="E41" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F41" s="1"/>
@@ -2171,7 +2075,7 @@
       <c r="D42" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E42" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F42" s="1"/>
@@ -2209,7 +2113,7 @@
       <c r="D43" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E43" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F43" s="1"/>
@@ -2241,12 +2145,12 @@
       <c r="B44" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="8" t="s">
+      <c r="C44" s="4"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F44" s="17" t="s">
+      <c r="F44" s="13" t="s">
         <v>24</v>
       </c>
       <c r="G44" s="1"/>
@@ -2274,15 +2178,15 @@
       <c r="A45" s="6">
         <v>6</v>
       </c>
-      <c r="B45" s="19" t="s">
+      <c r="B45" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="8" t="s">
+      <c r="C45" s="4"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F45" s="17" t="s">
+      <c r="F45" s="13" t="s">
         <v>24</v>
       </c>
       <c r="G45" s="1"/>
@@ -2310,10 +2214,10 @@
       <c r="A46" s="6">
         <v>7</v>
       </c>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -2495,12 +2399,12 @@
       <c r="B52" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="8" t="s">
+      <c r="C52" s="4"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F52" s="17" t="s">
+      <c r="F52" s="13" t="s">
         <v>40</v>
       </c>
       <c r="G52" s="1"/>
@@ -2537,7 +2441,7 @@
       <c r="D53" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E53" s="10" t="s">
+      <c r="E53" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F53" s="1"/>
@@ -2575,7 +2479,7 @@
       <c r="D54" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="E54" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F54" s="1"/>
@@ -2613,7 +2517,7 @@
       <c r="D55" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E55" s="10" t="s">
+      <c r="E55" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F55" s="1"/>
@@ -2651,7 +2555,7 @@
       <c r="D56" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="E56" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F56" s="1"/>
@@ -2689,7 +2593,7 @@
       <c r="D57" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E57" s="10" t="s">
+      <c r="E57" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F57" s="1"/>
@@ -2727,7 +2631,7 @@
       <c r="D58" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E58" s="10" t="s">
+      <c r="E58" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F58" s="1"/>
